--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imran\IdeaProjects\q1_assessment\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Saturday" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sunday" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Monday" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Tuesday" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Wednesday" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Thursday" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Friday" sheetId="7" r:id="rId10"/>
+    <sheet name="Saturday" sheetId="1" r:id="rId1"/>
+    <sheet name="Sunday" sheetId="2" r:id="rId2"/>
+    <sheet name="Monday" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuesday" sheetId="4" r:id="rId4"/>
+    <sheet name="Wednesday" sheetId="5" r:id="rId5"/>
+    <sheet name="Thursday" sheetId="6" r:id="rId6"/>
+    <sheet name="Friday" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
   <si>
     <t>Longest Option</t>
   </si>
@@ -166,21 +172,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -191,11 +197,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -209,59 +221,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -451,11 +441,13 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -463,9 +455,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -489,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -497,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -505,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -513,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -521,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -529,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -537,7 +529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -545,7 +537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -554,12 +546,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -567,9 +559,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -585,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -593,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -601,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -633,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -641,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -649,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -658,12 +650,181 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="89.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -671,9 +832,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,153 +842,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -835,9 +936,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -861,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -877,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -885,15 +986,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -901,15 +1002,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -917,7 +1018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -926,12 +1027,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -939,9 +1040,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -957,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -965,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,15 +1090,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1005,15 +1106,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1030,12 +1131,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1043,9 +1144,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1093,15 +1200,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,15 +1216,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1134,116 +1241,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B2:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="3" customWidth="true" width="10.13"/>
-    <col min="4" max="4" customWidth="true" width="8.13"/>
-    <col min="5" max="5" customWidth="true" width="8.25"/>
-    <col min="6" max="6" customWidth="true" width="5.0"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>